--- a/Test_Intk_Book.xlsx
+++ b/Test_Intk_Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\MyScripts_uc\vb\Excel_Referral_Intk_2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\MyScripts_uc\vb\Excel_Referral_Intk_2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53487C-AD0C-4C67-80E7-9BA70B3FDCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6999544F-B31B-46E1-BB94-8B806DF0CB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35100" yWindow="2055" windowWidth="18900" windowHeight="10965" xr2:uid="{68AE8EDB-3EA2-49D2-820B-9BE0B46D776D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{68AE8EDB-3EA2-49D2-820B-9BE0B46D776D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Test 3</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,13 +376,7 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test_Intk_Book.xlsx
+++ b/Test_Intk_Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\MyScripts_uc\vb\Excel_Referral_Intk_2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6999544F-B31B-46E1-BB94-8B806DF0CB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689918FC-9070-4D2D-BCAD-55BBBA3C49BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{68AE8EDB-3EA2-49D2-820B-9BE0B46D776D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{68AE8EDB-3EA2-49D2-820B-9BE0B46D776D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,63 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">Child Name: </t>
+  </si>
+  <si>
+    <t>LEA:</t>
+  </si>
+  <si>
+    <t>Offense(s):</t>
+  </si>
+  <si>
+    <t>Case No:</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>Intake Completed:</t>
+  </si>
+  <si>
+    <t>Case Received Date:</t>
+  </si>
+  <si>
+    <t>Days Pending:</t>
+  </si>
+  <si>
+    <t>Last Case Status Date:</t>
+  </si>
+  <si>
+    <t>Threshold:</t>
+  </si>
+  <si>
+    <t>Days Till Next Threshold</t>
+  </si>
+  <si>
+    <t>Intake Status Sheet</t>
+  </si>
+  <si>
+    <t>Progress Notes:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +103,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +473,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D9058B-F519-464E-A0FC-A60109C20571}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" s="9"/>
+      <c r="H6" s="8" t="str">
+        <f ca="1">IF(G6&gt;0,_xlfn.DAYS(TODAY(), G6) &amp; " Days", "")</f>
+        <v/>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="str">
+        <f>IF(I6&gt;0, I6+30, "")</f>
+        <v/>
+      </c>
+      <c r="K6" s="8" t="str">
+        <f ca="1">IF(I6&gt;0,SUM(J6-TODAY()) &amp; " Days","")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:L4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test_Intk_Book.xlsx
+++ b/Test_Intk_Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\MyScripts_uc\vb\Excel_Referral_Intk_2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689918FC-9070-4D2D-BCAD-55BBBA3C49BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00EC979-5BC0-4C90-B406-7A7D95074D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{68AE8EDB-3EA2-49D2-820B-9BE0B46D776D}"/>
   </bookViews>
@@ -473,16 +473,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D9058B-F519-464E-A0FC-A60109C20571}">
-  <dimension ref="A2:L6"/>
+  <dimension ref="A2:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="8" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="8" customWidth="1"/>
@@ -593,6 +593,484 @@
         <v/>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="9"/>
+      <c r="H7" s="8" t="str">
+        <f t="shared" ref="H7:H40" ca="1" si="0">IF(G7&gt;0,_xlfn.DAYS(TODAY(), G7) &amp; " Days", "")</f>
+        <v/>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="str">
+        <f t="shared" ref="J7:J40" si="1">IF(I7&gt;0, I7+30, "")</f>
+        <v/>
+      </c>
+      <c r="K7" s="8" t="str">
+        <f t="shared" ref="K7:K40" ca="1" si="2">IF(I7&gt;0,SUM(J7-TODAY()) &amp; " Days","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K8" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K9" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K10" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K11" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K12" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K13" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K14" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K15" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H16" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K16" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H17" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K17" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H18" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K18" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H19" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K19" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H20" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K20" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K21" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H22" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K22" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H23" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K23" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H24" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K24" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H25" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K25" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H26" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K26" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H27" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J27" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K27" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H28" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J28" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K28" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H29" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J29" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K29" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H30" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J30" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K30" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H31" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J31" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K31" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H32" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J32" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K32" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J33" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K33" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H34" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J34" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K34" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H35" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J35" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K35" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H36" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J36" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K36" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H37" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J37" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K37" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H38" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J38" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K38" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H39" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J39" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K39" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H40" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J40" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K40" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:L4"/>

--- a/Test_Intk_Book.xlsx
+++ b/Test_Intk_Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\MyScripts_uc\vb\Excel_Referral_Intk_2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00EC979-5BC0-4C90-B406-7A7D95074D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E23490-F212-42D0-8515-3AA5CCC398EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{68AE8EDB-3EA2-49D2-820B-9BE0B46D776D}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{68AE8EDB-3EA2-49D2-820B-9BE0B46D776D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,15 +87,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -112,11 +118,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -158,6 +204,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D9058B-F519-464E-A0FC-A60109C20571}">
-  <dimension ref="A2:L40"/>
+  <dimension ref="A2:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,40 +610,40 @@
       <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -592,6 +662,7 @@
         <f ca="1">IF(I6&gt;0,SUM(J6-TODAY()) &amp; " Days","")</f>
         <v/>
       </c>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G7" s="9"/>
@@ -608,6 +679,7 @@
         <f t="shared" ref="K7:K40" ca="1" si="2">IF(I7&gt;0,SUM(J7-TODAY()) &amp; " Days","")</f>
         <v/>
       </c>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8" s="8" t="str">
@@ -622,6 +694,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H9" s="8" t="str">
@@ -636,6 +709,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H10" s="8" t="str">
@@ -650,6 +724,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H11" s="8" t="str">
@@ -664,6 +739,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" s="8" t="str">
@@ -678,6 +754,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13" s="8" t="str">
@@ -692,6 +769,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="str">
@@ -706,6 +784,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H15" s="8" t="str">
@@ -720,6 +799,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H16" s="8" t="str">
@@ -734,8 +814,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H17" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -748,8 +829,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H18" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -762,8 +844,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H19" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -776,8 +859,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H20" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -790,8 +874,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -804,8 +889,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -818,8 +904,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H23" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -832,8 +919,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -846,8 +934,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -860,8 +949,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -874,8 +964,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -888,8 +979,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -902,8 +994,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -916,8 +1009,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -930,8 +1024,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H31" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -944,8 +1039,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H32" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -958,8 +1054,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H33" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -972,8 +1069,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H34" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -986,8 +1084,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H35" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1000,8 +1099,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H36" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1014,8 +1114,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="20"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H37" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1028,8 +1129,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H38" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1042,8 +1144,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H39" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1056,21 +1159,32 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H40" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J40" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K40" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-    </row>
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K40" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L40" s="21"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:L4"/>

--- a/Test_Intk_Book.xlsx
+++ b/Test_Intk_Book.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\MyScripts_uc\vb\Excel_Referral_Intk_2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\MyScripts_uc\vb\Excel_Projects\Excel_Intk_Ref_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E23490-F212-42D0-8515-3AA5CCC398EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23B8F29-0752-499E-B94F-68FC35188441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{68AE8EDB-3EA2-49D2-820B-9BE0B46D776D}"/>
+    <workbookView xWindow="30750" yWindow="1950" windowWidth="24180" windowHeight="11295" xr2:uid="{68AE8EDB-3EA2-49D2-820B-9BE0B46D776D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Intake Status" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t xml:space="preserve">Child Name: </t>
   </si>
@@ -60,10 +60,64 @@
     <t>Days Till Next Threshold</t>
   </si>
   <si>
-    <t>Intake Status Sheet</t>
-  </si>
-  <si>
     <t>Progress Notes:</t>
+  </si>
+  <si>
+    <t>Test Child</t>
+  </si>
+  <si>
+    <t>OPD</t>
+  </si>
+  <si>
+    <t>Murder</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>BCPD</t>
+  </si>
+  <si>
+    <t>Jaywalking</t>
+  </si>
+  <si>
+    <t>Refused</t>
+  </si>
+  <si>
+    <t>Testing 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Test Opending Excel</t>
+  </si>
+  <si>
+    <t>Test Intake Status Sheet</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>RCMARSHAL</t>
+  </si>
+  <si>
+    <t>Assault Bod Inj</t>
+  </si>
+  <si>
+    <t>Needs Setting</t>
   </si>
 </sst>
 </file>
@@ -199,35 +253,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,7 +600,7 @@
   <dimension ref="A2:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C3" sqref="C3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,134 +636,234 @@
     <row r="3" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="C3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8">
+        <v>241259</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="9">
+        <v>45600</v>
+      </c>
       <c r="H6" s="8" t="str">
         <f ca="1">IF(G6&gt;0,_xlfn.DAYS(TODAY(), G6) &amp; " Days", "")</f>
-        <v/>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="str">
+        <v>0 Days</v>
+      </c>
+      <c r="I6" s="9">
+        <v>45593</v>
+      </c>
+      <c r="J6" s="9">
         <f>IF(I6&gt;0, I6+30, "")</f>
-        <v/>
+        <v>45623</v>
       </c>
       <c r="K6" s="8" t="str">
         <f ca="1">IF(I6&gt;0,SUM(J6-TODAY()) &amp; " Days","")</f>
-        <v/>
-      </c>
-      <c r="L6" s="20"/>
+        <v>23 Days</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2415630</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="9">
+        <v>45595</v>
+      </c>
       <c r="H7" s="8" t="str">
         <f t="shared" ref="H7:H40" ca="1" si="0">IF(G7&gt;0,_xlfn.DAYS(TODAY(), G7) &amp; " Days", "")</f>
-        <v/>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="str">
+        <v>5 Days</v>
+      </c>
+      <c r="I7" s="9">
+        <v>45580</v>
+      </c>
+      <c r="J7" s="9">
         <f t="shared" ref="J7:J40" si="1">IF(I7&gt;0, I7+30, "")</f>
-        <v/>
+        <v>45610</v>
       </c>
       <c r="K7" s="8" t="str">
         <f t="shared" ref="K7:K40" ca="1" si="2">IF(I7&gt;0,SUM(J7-TODAY()) &amp; " Days","")</f>
-        <v/>
-      </c>
-      <c r="L7" s="20"/>
+        <v>10 Days</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8">
+        <v>123356</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="9">
+        <v>45600</v>
+      </c>
       <c r="H8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0 Days</v>
+      </c>
+      <c r="I8" s="9">
+        <v>45597</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="1"/>
+        <v>45627</v>
       </c>
       <c r="K8" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="L8" s="20"/>
+        <v>27 Days</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="8">
+        <v>247896</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="9">
+        <v>45590</v>
+      </c>
       <c r="H9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>10 Days</v>
+      </c>
+      <c r="I9" s="9">
+        <v>45597</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="1"/>
+        <v>45627</v>
       </c>
       <c r="K9" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="L9" s="20"/>
+        <v>27 Days</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H10" s="8" t="str">
@@ -724,7 +878,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L10" s="20"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H11" s="8" t="str">
@@ -739,7 +893,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L11" s="20"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" s="8" t="str">
@@ -754,7 +908,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L12" s="20"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13" s="8" t="str">
@@ -769,7 +923,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L13" s="20"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="str">
@@ -784,7 +938,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H15" s="8" t="str">
@@ -799,7 +953,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H16" s="8" t="str">
@@ -814,7 +968,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H17" s="8" t="str">
@@ -829,7 +983,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H18" s="8" t="str">
@@ -844,7 +998,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H19" s="8" t="str">
@@ -859,7 +1013,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L19" s="20"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H20" s="8" t="str">
@@ -874,7 +1028,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H21" s="8" t="str">
@@ -889,7 +1043,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="18"/>
     </row>
     <row r="22" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H22" s="8" t="str">
@@ -904,7 +1058,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L22" s="20"/>
+      <c r="L22" s="18"/>
     </row>
     <row r="23" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H23" s="8" t="str">
@@ -919,7 +1073,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L23" s="20"/>
+      <c r="L23" s="18"/>
     </row>
     <row r="24" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H24" s="8" t="str">
@@ -934,7 +1088,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L24" s="20"/>
+      <c r="L24" s="18"/>
     </row>
     <row r="25" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H25" s="8" t="str">
@@ -949,7 +1103,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L25" s="20"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H26" s="8" t="str">
@@ -964,7 +1118,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L26" s="20"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H27" s="8" t="str">
@@ -979,7 +1133,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L27" s="20"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H28" s="8" t="str">
@@ -994,7 +1148,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L28" s="20"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H29" s="8" t="str">
@@ -1009,7 +1163,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L29" s="20"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H30" s="8" t="str">
@@ -1024,7 +1178,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L30" s="20"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H31" s="8" t="str">
@@ -1039,7 +1193,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L31" s="20"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H32" s="8" t="str">
@@ -1054,7 +1208,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L32" s="20"/>
+      <c r="L32" s="18"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H33" s="8" t="str">
@@ -1069,7 +1223,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L33" s="20"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H34" s="8" t="str">
@@ -1084,7 +1238,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L34" s="20"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H35" s="8" t="str">
@@ -1099,7 +1253,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L35" s="20"/>
+      <c r="L35" s="18"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H36" s="8" t="str">
@@ -1114,7 +1268,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L36" s="20"/>
+      <c r="L36" s="18"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H37" s="8" t="str">
@@ -1129,7 +1283,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L37" s="20"/>
+      <c r="L37" s="18"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H38" s="8" t="str">
@@ -1144,7 +1298,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L38" s="20"/>
+      <c r="L38" s="18"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H39" s="8" t="str">
@@ -1159,30 +1313,30 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L39" s="20"/>
+      <c r="L39" s="18"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K40" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="L40" s="21"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K40" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L40" s="19"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Test_Intk_Book.xlsx
+++ b/Test_Intk_Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\MyScripts_uc\vb\Excel_Projects\Excel_Intk_Ref_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23B8F29-0752-499E-B94F-68FC35188441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89B7BE9-DB5C-40E5-9CF7-3AFA9F596C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30750" yWindow="1950" windowWidth="24180" windowHeight="11295" xr2:uid="{68AE8EDB-3EA2-49D2-820B-9BE0B46D776D}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <dimension ref="A2:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L4"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
